--- a/QRPH/CCG/StructureDefinition-ccg-di-bundle.xlsx
+++ b/QRPH/CCG/StructureDefinition-ccg-di-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-comment</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T16:28:52-05:00</t>
+    <t>2025-10-02T10:26:47-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -371,7 +371,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -4328,7 +4328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>190</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>276</v>
       </c>
@@ -11576,7 +11576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>314</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>352</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="150" hidden="true">
+    <row r="150">
       <c r="A150" t="s" s="2">
         <v>388</v>
       </c>
@@ -22448,7 +22448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="182" hidden="true">
+    <row r="182">
       <c r="A182" t="s" s="2">
         <v>425</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="214" hidden="true">
+    <row r="214">
       <c r="A214" t="s" s="2">
         <v>463</v>
       </c>
@@ -29246,12 +29246,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN241">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
